--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251128_132527</t>
+          <t>20251129_173451</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251128_132527</t>
+          <t>20251129_173452</t>
         </is>
       </c>
     </row>

--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251129_173451</t>
+          <t>20251129_181146</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251129_173452</t>
+          <t>20251129_181146</t>
         </is>
       </c>
     </row>

--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251129_181146</t>
+          <t>20251202_095715</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251129_181146</t>
+          <t>20251202_095716</t>
         </is>
       </c>
     </row>

--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251202_095715</t>
+          <t>20251202_100859</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251202_095716</t>
+          <t>20251202_100900</t>
         </is>
       </c>
     </row>

--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251202_100859</t>
+          <t>20251203_112037</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251202_100900</t>
+          <t>20251203_112038</t>
         </is>
       </c>
     </row>

--- a/TestResultApi/Test_Automation_Results.xlsx
+++ b/TestResultApi/Test_Automation_Results.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251203_112037</t>
+          <t>20251203_113411</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251203_112038</t>
+          <t>20251203_113412</t>
         </is>
       </c>
     </row>
